--- a/biology/Zoologie/Dryophthoridae/Dryophthoridae.xlsx
+++ b/biology/Zoologie/Dryophthoridae/Dryophthoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dryophthoridae forment une famille de coléoptères définie par Carl Johann Schönherr (1772-1848) qui comprend cinq sous-familles.
 </t>
@@ -511,7 +523,9 @@
           <t>Sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptodermatinae Bovie, 1908
 Dryophthorinae Schönherr, 1825
@@ -547,7 +561,9 @@
           <t>Quelques espèces remarquables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cosmopolites sordidus - Charançon du bananier
@@ -583,9 +599,11 @@
           <t>Liste des sous-familles, genres, espèces, sous-espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (31 août 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (31 août 2014) :
 genre Abacobius
 genre Abrachius
 genre Acantharhinus
@@ -752,7 +770,7 @@
 genre Xerodermus
 genre Yuccaborus
 genre Zetheus
-Selon ITIS      (31 août 2014)[3] :
+Selon ITIS      (31 août 2014) :
 genre Cactophagus LeConte, 1876
 genre Cosmopolites Chevrolat, 1885
 genre Diocalandra Faust, 1894
@@ -771,7 +789,7 @@
 genre Sphenophorus Schönherr, 1838
 genre Stenommatus Wollaston, 1873
 genre Yuccaborus LeConte, 1876
-Selon NCBI  (31 août 2014)[4] :
+Selon NCBI  (31 août 2014) :
 sous-famille Dryophthorinae
 genre Cactophagus
 Cactophagus spinolae
@@ -831,7 +849,7 @@
 genre Yuccaborus
 Yuccaborus frontalis
 non-classé Unclassified Dryophthoridae
-Selon Paleobiology Database                   (31 août 2014)[5] :
+Selon Paleobiology Database                   (31 août 2014) :
 sous-famille Orthognathinae
 sous-famille Rhynchophorinae
 sous-famille Stromboscerinae</t>
